--- a/Variables Candidatas Modelo Cervezas.xlsx
+++ b/Variables Candidatas Modelo Cervezas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/Mi unidad/FACEA/FACEA/Consultorías/2021/CCU/07 - Modelo Mejoras/5.0 Variables Seleccionadas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DBF36D-302C-8846-8F81-314BD400FD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05FD500-68CA-4847-BBCD-ECAA04D566F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6860" yWindow="3020" windowWidth="27640" windowHeight="16940" xr2:uid="{AC24A4A8-5437-534E-A30A-38A0F485FE71}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>N</t>
   </si>
@@ -49,93 +49,51 @@
     <t xml:space="preserve">Alternativa  </t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Climática</t>
   </si>
   <si>
     <t>RadMaxLag0</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>TempMaxLag0</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>TPALag0</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>HumedadLag0</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>TempMinLag0</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>PrecipitaLag0</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Movilidad</t>
   </si>
   <si>
     <t>LogTransitoPeajesLag0</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>LogTransitoPortRMLag0</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>LogTransitoPortRMLag1</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>LogTransitoPeajesLag1</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>LogTransitoPortRMLag2</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>LogTransitoPeajesLag2</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>LogTransitoPortRMLag3</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>índices de Actividad</t>
   </si>
   <si>
@@ -145,108 +103,69 @@
     <t>LogImacecComerLag0</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>IAC2014Lag0</t>
   </si>
   <si>
     <t>LogIAC2014Lag0</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>ISUP2014ConstLag0</t>
   </si>
   <si>
     <t>LogISUP2014ConstLag0</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>IAC_Emp2014MenorLag0</t>
   </si>
   <si>
     <t>LogIAC_Emp2014MenorLag0</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>ISUP2014Lag0</t>
   </si>
   <si>
     <t>LogISUP2014Lag0</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>IAC2014Lag1</t>
   </si>
   <si>
     <t>LogIAC2014Lag1</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>ImacecLag0</t>
   </si>
   <si>
     <t>LogImacecLag0</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>IAC2014Lag2</t>
   </si>
   <si>
     <t>LogIAC2014Lag2</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>ISUP2014Lag2</t>
   </si>
   <si>
     <t>LogISUP2014Lag2</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>ISUP2014Lag1</t>
   </si>
   <si>
     <t>LogISUP2014Lag1</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>RetImacecComerLag0</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>IMCE</t>
   </si>
   <si>
     <t>IMCEIndustriaLag1</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>Remuneraciones</t>
   </si>
   <si>
@@ -256,128 +175,101 @@
     <t>LogIndRealRemuLag0</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>IndNomObraLag0</t>
   </si>
   <si>
     <t>LogIndNomObraLag0</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>IndNomiRemuLag0</t>
   </si>
   <si>
     <t>LogIndNomiRemuLag0</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>IndNomiRemuLag1</t>
   </si>
   <si>
     <t>LogIndNomiRemuLag1</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>IndNomObraLag1</t>
   </si>
   <si>
     <t>LogIndNomObraLag1</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>IndRealRemuLag1</t>
   </si>
   <si>
     <t>LogIndRealRemuLag1</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>IndNomObraLag2</t>
   </si>
   <si>
     <t>LogIndNomObraLag2</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>IndNomiRemuLag2</t>
   </si>
   <si>
     <t>LogIndNomiRemuLag2</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>IndRealRemuLag2</t>
   </si>
   <si>
     <t>LogIndRealRemuLag2</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>Nuevas Variables CCU</t>
   </si>
   <si>
     <t>MSVolCervezasSLag1</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>MSVolCervezasSLag2</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>MSVolCervezasSLag0</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>MSVolConsEcoCCULag3</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>MSVolCervezasSLag3</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>MSVolConsEcoCCULag2</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>MSVolCompCCULag1</t>
+  </si>
+  <si>
+    <t>PCervezasDLag0</t>
+  </si>
+  <si>
+    <t>PCervezasDLag1</t>
+  </si>
+  <si>
+    <t>PCervezasDLag2</t>
+  </si>
+  <si>
+    <t>PCervezasDLag3</t>
+  </si>
+  <si>
+    <t>PCervezasDLag6</t>
+  </si>
+  <si>
+    <t>Iniciales CCU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -398,6 +290,19 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -426,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,13 +343,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -761,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF446D97-BD9A-4E4B-A346-6C44F1215E4A}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,7 +693,7 @@
     <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,547 +707,612 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="6" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="28" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="D28" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="B34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="B38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="B39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
         <v>39</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="B41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="B42" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B43" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
         <v>43</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="B44" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="B45" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
         <v>45</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B46" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="B47" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="B48" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="6"/>
+      <c r="D48" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
